--- a/Dataset/Folds/Fold_4/Excel/40.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/40.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="61">
   <si>
     <t>Doi</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>[Ke%Hu%NULL%1,                          Wei-jie%Guan%NULL%1,                          Ying%Bi%NULL%1,                          Wei%Zhang%NULL%0,                          Lanjuan%Li%NULL%0,                          Boli%Zhang%NULL%1,                          Qingquan%Liu%NULL%1,                          Yuanlin%Song%NULL%1,                          Xingwang%Li%NULL%0,                          Zhongping%Duan%NULL%1,                          Qingshan%Zheng%NULL%1,                          Zifeng%Yang%NULL%1,                          Jingyi%Liang%NULL%1,                          Mingfeng%Han%NULL%0,                          Lianguo%Ruan%NULL%1,                          Chaomin%Wu%NULL%1,                          Yunting%Zhang%NULL%1,                          Zhen-hua%Jia%NULL%1,                          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                           Wei-jie%Guan%NULL%1,                           Ying%Bi%NULL%1,                           Wei%Zhang%NULL%0,                           Lanjuan%Li%NULL%0,                           Boli%Zhang%NULL%1,                           Qingquan%Liu%NULL%1,                           Yuanlin%Song%NULL%1,                           Xingwang%Li%NULL%0,                           Zhongping%Duan%NULL%1,                           Qingshan%Zheng%NULL%1,                           Zifeng%Yang%NULL%1,                           Jingyi%Liang%NULL%1,                           Mingfeng%Han%NULL%0,                           Lianguo%Ruan%NULL%1,                           Chaomin%Wu%NULL%1,                           Yunting%Zhang%NULL%1,                           Zhen-hua%Jia%NULL%1,                           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%1,                            Wei-jie%Guan%NULL%1,                            Ying%Bi%NULL%1,                            Wei%Zhang%NULL%0,                            Lanjuan%Li%NULL%0,                            Boli%Zhang%NULL%1,                            Qingquan%Liu%NULL%1,                            Yuanlin%Song%NULL%1,                            Xingwang%Li%NULL%0,                            Zhongping%Duan%NULL%1,                            Qingshan%Zheng%NULL%1,                            Zifeng%Yang%NULL%1,                            Jingyi%Liang%NULL%1,                            Mingfeng%Han%NULL%0,                            Lianguo%Ruan%NULL%1,                            Chaomin%Wu%NULL%1,                            Yunting%Zhang%NULL%1,                            Zhen-hua%Jia%NULL%1,                            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Hu%NULL%0, Wei-jie%Guan%NULL%0, Ying%Bi%NULL%1, Wei%Zhang%NULL%0, Lanjuan%Li%NULL%0, Boli%Zhang%NULL%1, Qingquan%Liu%NULL%0, Yuanlin%Song%NULL%1, Xingwang%Li%NULL%0, Zhongping%Duan%NULL%1, Qingshan%Zheng%NULL%1, Zifeng%Yang%NULL%1, Jingyi%Liang%NULL%1, Mingfeng%Han%NULL%0, Lianguo%Ruan%NULL%2, Chaomin%Wu%NULL%1, Yunting%Zhang%NULL%1, Zhen-hua%Jia%NULL%1, Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier GmbH.</t>
   </si>
 </sst>
 </file>
@@ -555,7 +567,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -567,10 +579,10 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
